--- a/biology/Zoologie/Bison/Bison.xlsx
+++ b/biology/Zoologie/Bison/Bison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bisons (Bison) forment un genre de grands bovidés ruminants dont il existe deux espèces vivantes : le bison d'Europe (Bison bonasus) et le bison d'Amérique du Nord (Bison bison) qui est elle-même divisée en deux sous-espèces : le bison des bois (Bison bison athabascae) et le bison des plaines (Bison bison bison). Le bison des plaines vit essentiellement dans les steppes nord-américaines tandis que le bison des bois et le bison d'Europe occupent des habitats forestiers.
 Les relations entre les deux espèces vivant actuellement ne sont pas totalement claires. Elles sont sans conteste très proches, puisqu'elles font des hybrides fertiles. Il semble que la fertilité des hybrides soit la même que celle des animaux non hybridés. Il existe d'ailleurs des troupeaux d'hybrides vivant en liberté dans le Caucase russe depuis les années 1950. Il faudrait donc considérer Bison bison et Bison bonasus comme deux sous-espèces, et non comme deux espèces distinctes. Certains biologistes défendent d'ailleurs cette position, mais la majorité des auteurs considèrent cependant toujours que les deux groupes sont des espèces distinctes.
@@ -512,9 +524,11 @@
           <t>Origine du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est généralement admis que le genre Bison trouve son origine en Asie du sud. Des formes antérieures au genre Bison sont identifiées au Pliocène récent : Probison dehmi[1] et Protobison kushkunensis provenant d'Inde, et Eobison degiulii, provenant d'Europe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est généralement admis que le genre Bison trouve son origine en Asie du sud. Des formes antérieures au genre Bison sont identifiées au Pliocène récent : Probison dehmi et Protobison kushkunensis provenant d'Inde, et Eobison degiulii, provenant d'Europe.
 </t>
         </is>
       </c>
@@ -545,11 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces actuelles
-Bison bison (Linnaeus, 1758) : Amérique du Nord.
-Bison bonasus (Linnaeus, 1758) : Europe.
-Espèces éteintes
-†Bison antiquus (Leidy, 1852) : Amérique du Nord.
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bison bison (Linnaeus, 1758) : Amérique du Nord.
+Bison bonasus (Linnaeus, 1758) : Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bison</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bison</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Bison antiquus (Leidy, 1852) : Amérique du Nord.
 †Bison latifrons (Harlan, 1825; Leidy, 1852) : Amérique du Nord.
 †Bison menneri (Sher, 1997) : Europe.
 †Bison palaeosinensis (Teilhard &amp; Piveteau, 1930) : Asie.
@@ -561,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bison</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bison</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bison</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bison</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Le bison des steppes (Bison priscus (Bojanus, 1827))</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bison priscus, un bison à grandes cornes, habitait l'Eurasie et l'Alaska durant le Pléistocène. On retrouve fréquemment ce bison sur les peintures pariétales de la Préhistoire européenne.
 C'est à la fin de la dernière période glaciaire (il y a 10 000 à 15 000 ans) que Bison priscus semble donner naissance à Bison bonasus, le bison d'Europe actuel, et peut-être aussi au bison d'Amérique.
@@ -593,40 +648,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bison</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bison</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>L'espèce Bison d'Europe (Bison bonasus (Linnaeus, 1758))</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bison d'Europe était très fréquent sur tout le continent européen, de l'Atlantique à l'Oural (excepté la péninsule Ibérique, l'Italie, la péninsule scandinave et les îles Britanniques), et ce jusqu'au Moyen Âge. Il est également possible qu'il ait résidé en Sibérie, même si ce point doit encore être confirmé[2]. L'historien Paul Diacre signale au VIIIe siècle la présence de bisons sauvages dans le Nord-Est de l'Italie, dans la région du Monte Re[3], située aujourd'hui à la frontière italo-slovène.
-Charlemagne le chassait, de même que l'aurochs, dans la région de Liège et d'Aix-la-Chapelle.
-Exterminé dans la nature après la Première Guerre mondiale, le bison d'Europe ne survivait alors plus qu'en captivité. Il a été progressivement réintroduit dans la nature après la Seconde Guerre mondiale et plus récemment en Roumanie, dans le Parc National "Vânatori - Neamt" (la région de Bucovina)[4].
-Le poids moyen du mâle est d'environ 700 kg (1 tonne au maximum), et sa taille peut atteindre 1,80 m, voire 2 mètres, au garrot. La femelle est plus petite, avec un poids entre 350 et 600 kg. C'est le plus gros mammifère terrestre d'Europe.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -648,10 +669,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>L'espèce Bison d'Europe (Bison bonasus (Linnaeus, 1758))</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bison d'Europe était très fréquent sur tout le continent européen, de l'Atlantique à l'Oural (excepté la péninsule Ibérique, l'Italie, la péninsule scandinave et les îles Britanniques), et ce jusqu'au Moyen Âge. Il est également possible qu'il ait résidé en Sibérie, même si ce point doit encore être confirmé. L'historien Paul Diacre signale au VIIIe siècle la présence de bisons sauvages dans le Nord-Est de l'Italie, dans la région du Monte Re, située aujourd'hui à la frontière italo-slovène.
+Charlemagne le chassait, de même que l'aurochs, dans la région de Liège et d'Aix-la-Chapelle.
+Exterminé dans la nature après la Première Guerre mondiale, le bison d'Europe ne survivait alors plus qu'en captivité. Il a été progressivement réintroduit dans la nature après la Seconde Guerre mondiale et plus récemment en Roumanie, dans le Parc National "Vânatori - Neamt" (la région de Bucovina).
+Le poids moyen du mâle est d'environ 700 kg (1 tonne au maximum), et sa taille peut atteindre 1,80 m, voire 2 mètres, au garrot. La femelle est plus petite, avec un poids entre 350 et 600 kg. C'est le plus gros mammifère terrestre d'Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bison</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bison</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>L'espèce Bison d'Amérique du Nord (Bison bison (Linné, 1758))</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux sous-espèces du bison d'Amérique du Nord:
 Bison des bois (Bison bison athabascae (Rhoads, 1897))
@@ -665,37 +724,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bison</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bison</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hybrides</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>cattalo : taureau + bisonne
-beefalo : vache + bison</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -717,10 +745,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>cattalo : taureau + bisonne
+beefalo : vache + bison</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bison</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bison</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Le bison dans la culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Une effigie de bison figure sur les emblèmes des subdivisions de la Biélorussie suivantes : le Voblast de Brest et le Voblast de Hrodna.
 </t>
